--- a/test_scripts/geologys example.xlsx
+++ b/test_scripts/geologys example.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>z_top</t>
   </si>
@@ -360,10 +360,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -406,7 +406,7 @@
         <v>4</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -427,7 +427,7 @@
         <v>5</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -447,6 +447,66 @@
         <v>5</v>
       </c>
       <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>-10</v>
+      </c>
+      <c r="D5">
+        <v>0.66</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>-10</v>
+      </c>
+      <c r="C6">
+        <v>-15</v>
+      </c>
+      <c r="D6">
+        <v>0.3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>-15</v>
+      </c>
+      <c r="C7">
+        <v>-30</v>
+      </c>
+      <c r="D7">
+        <v>0.43</v>
+      </c>
+      <c r="E7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7">
         <v>1</v>
       </c>
     </row>
